--- a/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12195" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="15495" windowHeight="11025" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
     <sheet name="android" sheetId="3" r:id="rId2"/>
     <sheet name="docdispose" sheetId="4" r:id="rId3"/>
     <sheet name="api" sheetId="7" r:id="rId4"/>
-    <sheet name="追索劳动报酬1" sheetId="2" r:id="rId5"/>
-    <sheet name="追索劳动报酬2" sheetId="16" r:id="rId6"/>
-    <sheet name="未签劳动合同赔偿纠纷" sheetId="14" r:id="rId7"/>
-    <sheet name="诉讼离婚纠纷1" sheetId="13" r:id="rId8"/>
-    <sheet name="诉讼离婚纠纷2" sheetId="12" r:id="rId9"/>
-    <sheet name="变更抚养关系" sheetId="11" r:id="rId10"/>
-    <sheet name="民间借贷" sheetId="10" r:id="rId11"/>
-    <sheet name="机动车交通事故责任纠纷" sheetId="15" r:id="rId12"/>
+    <sheet name="计算器" sheetId="17" r:id="rId5"/>
+    <sheet name="追索劳动报酬1" sheetId="2" r:id="rId6"/>
+    <sheet name="追索劳动报酬2" sheetId="16" r:id="rId7"/>
+    <sheet name="未签劳动合同赔偿纠纷" sheetId="14" r:id="rId8"/>
+    <sheet name="诉讼离婚纠纷1" sheetId="13" r:id="rId9"/>
+    <sheet name="诉讼离婚纠纷2" sheetId="12" r:id="rId10"/>
+    <sheet name="变更抚养关系" sheetId="11" r:id="rId11"/>
+    <sheet name="民间借贷" sheetId="10" r:id="rId12"/>
+    <sheet name="机动车交通事故责任纠纷" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>Run</t>
   </si>
@@ -282,25 +283,14 @@
     <t>case6</t>
   </si>
   <si>
-    <t>全国</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=50</t>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;case4,Res,data.cases.id[dict_list0_dict]&gt;</t>
   </si>
   <si>
     <t>case7</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
-id=c20a74ea86a97efeecc6431295538414</t>
-  </si>
-  <si>
-    <t>case8</t>
   </si>
   <si>
     <t>cost</t>
@@ -316,34 +306,6 @@
     <t>znys</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=&lt;case3,Res,data.record_id&gt;</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
-id=&lt;case4,Res,data.cases.id[dict_list0_dict]&gt;</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>qid=&lt;case3,Res,data.record_id&gt;</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
-qId=&lt;case3,Res,data.record_id&gt;</t>
-  </si>
-  <si>
-    <t>selectclaim</t>
-  </si>
-  <si>
     <t>劳动争议纠纷</t>
   </si>
   <si>
@@ -387,7 +349,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>追索劳动报酬纠纷</t>
+      <t>未签劳动合同</t>
     </r>
     <r>
       <rPr>
@@ -424,7 +386,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>拖欠工资</t>
+      <t>我已辞职</t>
     </r>
     <r>
       <rPr>
@@ -455,7 +417,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
 tags=dumps["%tag0%"]</t>
     </r>
   </si>
@@ -491,7 +453,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,Res,data.id&gt;
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
 tags=%tags%</t>
     </r>
   </si>
@@ -514,7 +476,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>没有上述情形</t>
+      <t>已申请劳动仲裁</t>
     </r>
     <r>
       <rPr>
@@ -605,7 +567,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>超过应发工资当月的最后一日</t>
+      <t>收到裁决书但未超过15天</t>
     </r>
     <r>
       <rPr>
@@ -678,6 +640,122 @@
     </r>
   </si>
   <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>qid=&lt;case3,Res,data.record_id&gt;
+flag=2</t>
+  </si>
+  <si>
+    <t>qid=&lt;case3,Res,data.record_id&gt;
+start=2018-1-1
+end=2021-1-1
+salary=8000
+time_of_award=2019-1-1
+location=江苏省-南京市-雨花台区</t>
+  </si>
+  <si>
+    <t>case8</t>
+  </si>
+  <si>
+    <t>qid=&lt;case3,Res,data.record_id&gt;</t>
+  </si>
+  <si>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=&lt;case3,Res,data.record_id&gt;</t>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <r>
+      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>case11</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
+qId=&lt;case3,Res,data.record_id&gt;</t>
+  </si>
+  <si>
+    <t>data.map.claimMoney[!=]int(0)
+data.map.mediateClaim[!=]int(0)
+data.map.mediateResult[!=]int(0)
+data.map.resultMoney[!=]int(0)</t>
+  </si>
+  <si>
+    <t>case12</t>
+  </si>
+  <si>
+    <t>selectclaim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subject_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追索劳动报酬纠纷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -696,7 +774,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我已辞职</t>
+      <t>拖欠工资</t>
     </r>
     <r>
       <rPr>
@@ -717,17 +795,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
 tags=dumps["%tag0%"]</t>
     </r>
   </si>
@@ -753,17 +831,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.id&gt;
 tags=%tags%</t>
     </r>
   </si>
@@ -786,7 +864,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已申请劳动仲裁</t>
+      <t>没有上述情形</t>
     </r>
     <r>
       <rPr>
@@ -807,7 +885,115 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case6</t>
+      <t>case3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超过应发工资当月的最后一日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我已辞职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case5</t>
     </r>
     <r>
       <rPr>
@@ -843,7 +1029,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case6</t>
+      <t>case5</t>
     </r>
     <r>
       <rPr>
@@ -854,7 +1040,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case3,Res,data.record_id&gt;
 tags=%tags%</t>
     </r>
   </si>
@@ -877,7 +1062,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已经仲裁还未有结果</t>
+      <t>已申请劳动仲裁</t>
     </r>
     <r>
       <rPr>
@@ -898,7 +1083,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case7</t>
+      <t>case6</t>
     </r>
     <r>
       <rPr>
@@ -934,7 +1119,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>case7</t>
+      <t>case6</t>
     </r>
     <r>
       <rPr>
@@ -950,13 +1135,95 @@
     </r>
   </si>
   <si>
-    <t>case9</t>
-  </si>
-  <si>
-    <t>case10</t>
-  </si>
-  <si>
-    <t>case11</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经仲裁还未有结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
   </si>
   <si>
     <r>
@@ -992,9 +1259,6 @@
     </r>
   </si>
   <si>
-    <t>case12</t>
-  </si>
-  <si>
     <t>case13</t>
   </si>
   <si>
@@ -1061,60 +1325,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>已申请劳动仲裁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
 tags=dumps["%tag0%"]</t>
     </r>
   </si>
@@ -3921,18 +4131,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3949,35 +4152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3985,29 +4159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4021,20 +4173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -4043,41 +4181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4099,10 +4204,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4115,7 +4304,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4127,13 +4412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,25 +4424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,127 +4478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4306,36 +4495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4357,8 +4516,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4366,8 +4540,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4391,186 +4595,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5009,6 +5198,388 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" ht="71.25" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" ht="85.5" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" ht="85.5" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" ht="85.5" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" ht="85.5" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" ht="85.5" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5036,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5062,16 +5633,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5082,16 +5653,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5102,16 +5673,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5122,16 +5693,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5142,16 +5713,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5162,13 +5733,13 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -5179,14 +5750,14 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -5194,17 +5765,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -5212,16 +5783,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5229,16 +5800,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H18"/>
@@ -5278,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -5304,16 +5875,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5324,16 +5895,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5344,16 +5915,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5364,16 +5935,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5384,16 +5955,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5404,16 +5975,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5424,16 +5995,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -5441,19 +6012,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -5461,19 +6032,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -5481,19 +6052,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -5501,19 +6072,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -5521,19 +6092,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5541,16 +6112,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -5558,17 +6129,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
@@ -5576,17 +6147,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -5594,16 +6165,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5611,16 +6182,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +6201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H21"/>
@@ -5660,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5686,16 +6257,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5706,16 +6277,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5726,16 +6297,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5746,16 +6317,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5766,16 +6337,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5786,16 +6357,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5806,16 +6377,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -5823,19 +6394,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -5843,19 +6414,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -5863,19 +6434,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -5883,19 +6454,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -5903,19 +6474,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" ht="85.5" spans="1:7">
@@ -5923,19 +6494,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="1:7">
@@ -5943,19 +6514,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:7">
@@ -5963,19 +6534,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5983,16 +6554,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
@@ -6000,17 +6571,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:7">
@@ -6018,17 +6589,17 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
@@ -6036,16 +6607,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6053,16 +6624,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6077,7 +6648,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6325,13 +6896,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
@@ -6432,14 +7003,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:5">
+    <row r="7" ht="45" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="11"/>
@@ -6447,27 +7015,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:5">
+    <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
         <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="9" ht="42.75" spans="1:5">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6480,10 +7036,290 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" ht="85.5" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6502,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -6525,7 +7361,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -6539,7 +7375,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -6553,13 +7389,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>16</v>
@@ -6573,7 +7409,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -6581,7 +7417,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
@@ -6589,15 +7425,15 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6605,13 +7441,13 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:6">
@@ -6619,24 +7455,24 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +7482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H14"/>
@@ -6676,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6702,16 +7538,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6722,16 +7558,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -6742,16 +7578,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -6762,16 +7598,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -6782,16 +7618,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -6802,16 +7638,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -6822,16 +7658,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -6839,19 +7675,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6859,16 +7695,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -6876,17 +7712,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -6894,17 +7730,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -6912,16 +7748,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6929,16 +7765,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6948,7 +7784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
@@ -6978,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7004,16 +7840,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7024,16 +7860,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7044,16 +7880,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7064,16 +7900,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7084,16 +7920,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7104,13 +7940,13 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -7121,14 +7957,14 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -7136,17 +7972,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -7154,16 +7990,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7171,16 +8007,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7190,7 +8026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H14"/>
@@ -7220,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7246,16 +8082,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7266,16 +8102,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7286,16 +8122,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7306,16 +8142,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7326,16 +8162,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -7346,16 +8182,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -7366,16 +8202,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="86.1" customHeight="1" spans="1:7">
@@ -7383,19 +8219,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7403,16 +8239,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -7420,17 +8256,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -7438,17 +8274,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -7456,16 +8292,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7473,398 +8309,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="4" ht="71.25" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" ht="85.5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" ht="85.5" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" ht="71.25" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" ht="85.5" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" ht="85.5" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" ht="85.5" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" ht="85.5" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" ht="85.5" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" ht="85.5" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15495" windowHeight="11025" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="15495" windowHeight="11775" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
     <sheet name="android" sheetId="3" r:id="rId2"/>
     <sheet name="docdispose" sheetId="4" r:id="rId3"/>
     <sheet name="api" sheetId="7" r:id="rId4"/>
-    <sheet name="计算器" sheetId="17" r:id="rId5"/>
-    <sheet name="追索劳动报酬1" sheetId="2" r:id="rId6"/>
-    <sheet name="追索劳动报酬2" sheetId="16" r:id="rId7"/>
-    <sheet name="未签劳动合同赔偿纠纷" sheetId="14" r:id="rId8"/>
-    <sheet name="诉讼离婚纠纷1" sheetId="13" r:id="rId9"/>
-    <sheet name="诉讼离婚纠纷2" sheetId="12" r:id="rId10"/>
-    <sheet name="变更抚养关系" sheetId="11" r:id="rId11"/>
-    <sheet name="民间借贷" sheetId="10" r:id="rId12"/>
-    <sheet name="机动车交通事故责任纠纷" sheetId="15" r:id="rId13"/>
+    <sheet name="smsauth" sheetId="18" r:id="rId5"/>
+    <sheet name="计算器" sheetId="17" r:id="rId6"/>
+    <sheet name="追索劳动报酬1" sheetId="2" r:id="rId7"/>
+    <sheet name="追索劳动报酬2" sheetId="16" r:id="rId8"/>
+    <sheet name="未签劳动合同赔偿纠纷" sheetId="14" r:id="rId9"/>
+    <sheet name="诉讼离婚纠纷1" sheetId="13" r:id="rId10"/>
+    <sheet name="诉讼离婚纠纷2" sheetId="12" r:id="rId11"/>
+    <sheet name="变更抚养关系" sheetId="11" r:id="rId12"/>
+    <sheet name="民间借贷" sheetId="10" r:id="rId13"/>
+    <sheet name="机动车交通事故责任纠纷" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>Run</t>
   </si>
@@ -303,6 +304,40 @@
     <t>Module</t>
   </si>
   <si>
+    <t>smsauth</t>
+  </si>
+  <si>
+    <t>exists</t>
+  </si>
+  <si>
+    <t>phone=18360863739</t>
+  </si>
+  <si>
+    <t>checkcode</t>
+  </si>
+  <si>
+    <t>mobile/checkcode</t>
+  </si>
+  <si>
+    <t>phone=&lt;case1,Input,phone&gt;</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>phone=&lt;case1,Input,phone&gt;
+phone_code=</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>userinfo</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
     <t>znys</t>
   </si>
   <si>
@@ -675,6 +710,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
 id=&lt;</t>
     </r>
@@ -4131,9 +4173,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4151,23 +4193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4189,16 +4217,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4209,58 +4244,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4287,9 +4270,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4304,13 +4346,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4328,13 +4460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4346,25 +4478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4376,61 +4502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4448,43 +4520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4495,6 +4537,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4517,31 +4598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4561,26 +4618,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4601,10 +4643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4613,139 +4655,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyAlignment="1">
@@ -4765,6 +4807,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5198,6 +5243,308 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="71.25" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" ht="85.5" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" ht="86.1" customHeight="1" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5251,16 +5598,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5271,16 +5618,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5291,16 +5638,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5311,16 +5658,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5331,16 +5678,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5351,16 +5698,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5371,16 +5718,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -5388,19 +5735,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -5408,19 +5755,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -5428,19 +5775,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -5448,19 +5795,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -5468,19 +5815,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5488,16 +5835,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -5505,17 +5852,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
@@ -5523,17 +5870,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -5541,16 +5888,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5558,16 +5905,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
@@ -5633,16 +5980,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5653,16 +6000,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5673,16 +6020,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5693,16 +6040,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5713,16 +6060,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5733,13 +6080,13 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -5750,14 +6097,14 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -5765,17 +6112,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -5783,16 +6130,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5800,16 +6147,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5819,7 +6166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H18"/>
@@ -5875,16 +6222,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5895,16 +6242,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5915,16 +6262,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5935,16 +6282,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5955,16 +6302,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5975,16 +6322,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5995,16 +6342,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -6012,19 +6359,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -6032,19 +6379,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6052,19 +6399,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6072,19 +6419,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6092,19 +6439,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6112,16 +6459,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -6129,17 +6476,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
@@ -6147,17 +6494,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -6165,16 +6512,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6182,16 +6529,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H21"/>
@@ -6257,16 +6604,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6277,16 +6624,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -6297,16 +6644,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -6317,16 +6664,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -6337,16 +6684,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -6357,16 +6704,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -6377,16 +6724,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -6394,19 +6741,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -6414,19 +6761,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6434,19 +6781,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6454,19 +6801,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6474,19 +6821,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" ht="85.5" spans="1:7">
@@ -6494,19 +6841,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="1:7">
@@ -6514,19 +6861,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:7">
@@ -6534,19 +6881,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6554,16 +6901,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
@@ -6571,17 +6918,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:7">
@@ -6589,17 +6936,17 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
@@ -6607,16 +6954,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6624,16 +6971,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6898,7 +7245,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7036,10 +7383,135 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -7089,16 +7561,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7109,16 +7581,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7129,16 +7601,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7149,16 +7621,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7169,16 +7641,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:7">
@@ -7189,14 +7661,14 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -7207,13 +7679,13 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7221,16 +7693,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -7238,17 +7710,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -7256,17 +7728,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="57" spans="1:8">
@@ -7274,19 +7746,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7294,16 +7766,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7313,7 +7785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
@@ -7361,7 +7833,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -7375,7 +7847,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -7389,13 +7861,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>16</v>
@@ -7409,7 +7881,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -7417,7 +7889,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
@@ -7425,7 +7897,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -7441,13 +7913,13 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:6">
@@ -7455,24 +7927,24 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7482,7 +7954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H14"/>
@@ -7538,16 +8010,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7558,16 +8030,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7578,16 +8050,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7598,16 +8070,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7618,16 +8090,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -7638,16 +8110,16 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -7658,16 +8130,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -7675,19 +8147,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7695,16 +8167,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -7712,17 +8184,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -7730,17 +8202,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -7748,16 +8220,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7765,16 +8237,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7784,7 +8256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
@@ -7840,16 +8312,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7860,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7880,16 +8352,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7900,16 +8372,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7920,16 +8392,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7940,13 +8412,13 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -7957,14 +8429,14 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -7972,17 +8444,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -7990,16 +8462,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8007,318 +8479,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" ht="71.25" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" ht="85.5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" ht="85.5" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" ht="71.25" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="85.5" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" ht="86.1" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15495" windowHeight="11775" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="27165" windowHeight="13065" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="smsauth" sheetId="18" r:id="rId5"/>
     <sheet name="计算器" sheetId="17" r:id="rId6"/>
     <sheet name="追索劳动报酬1" sheetId="2" r:id="rId7"/>
-    <sheet name="追索劳动报酬2" sheetId="16" r:id="rId8"/>
+    <sheet name="追索劳动报酬2" sheetId="19" r:id="rId8"/>
     <sheet name="未签劳动合同赔偿纠纷" sheetId="14" r:id="rId9"/>
     <sheet name="诉讼离婚纠纷1" sheetId="13" r:id="rId10"/>
     <sheet name="诉讼离婚纠纷2" sheetId="12" r:id="rId11"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>Run</t>
   </si>
@@ -906,7 +906,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>没有上述情形</t>
+      <t>不存在</t>
     </r>
     <r>
       <rPr>
@@ -960,7 +960,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>超过应发工资当月的最后一日</t>
+      <t>没有上述情形</t>
     </r>
     <r>
       <rPr>
@@ -1014,7 +1014,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我已辞职</t>
+      <t>超过应发工资当月的最后一日</t>
     </r>
     <r>
       <rPr>
@@ -1104,7 +1104,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已申请劳动仲裁</t>
+      <t>我已辞职</t>
     </r>
     <r>
       <rPr>
@@ -1195,7 +1195,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已经仲裁还未有结果</t>
+      <t>已申请劳动仲裁</t>
     </r>
     <r>
       <rPr>
@@ -1276,234 +1276,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
-id=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>case13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subject_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>未签劳动合同赔偿纠纷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=我已辞职
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=收到裁决书但未超过15天
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
-id=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>离婚纠纷</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cause_id=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5c0f6972ba92931ebca385d1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subject_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>诉讼离婚纠纷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>tag0_name=</t>
     </r>
     <r>
@@ -1514,473 +1286,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>领取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第一次起诉离婚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实施家庭暴力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>没有上述情形</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分居满两年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=没有上述情形
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-tag0=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>case7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
-tags=dumps["%tag0%"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tag0_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有</t>
+      <t>已经仲裁还未有结果</t>
     </r>
     <r>
       <rPr>
@@ -2061,6 +1367,790 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>case13</t>
+  </si>
+  <si>
+    <t>case14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subject_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未签劳动合同赔偿纠纷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=我已辞职
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=收到裁决书但未超过15天
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>离婚纠纷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cause_id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5c0f6972ba92931ebca385d1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subject_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉讼离婚纠纷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>领取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.temp_choice_tags.id[dict_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一次起诉离婚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实施家庭暴力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有上述情形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分居满两年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=没有上述情形
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tag0_name=</t>
     </r>
     <r>
@@ -2344,9 +2434,6 @@
 record_id=&lt;case3,Res,data.record_id&gt;
 tags=%tags%</t>
     </r>
-  </si>
-  <si>
-    <t>case14</t>
   </si>
   <si>
     <t>case15</t>
@@ -4172,10 +4259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4190,6 +4277,21 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4210,17 +4312,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4231,9 +4370,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4247,66 +4401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4315,18 +4409,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4346,7 +4433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4358,13 +4451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4376,7 +4463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4388,19 +4505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4412,13 +4517,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4430,31 +4559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4466,43 +4571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4514,7 +4583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4530,6 +4599,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -4537,6 +4624,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4564,41 +4681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4620,20 +4707,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4643,10 +4730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4655,16 +4742,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4673,121 +4760,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyAlignment="1">
@@ -4807,9 +4894,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5302,10 +5386,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5322,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -5342,7 +5426,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>110</v>
@@ -5362,7 +5446,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>89</v>
@@ -5382,7 +5466,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -5402,7 +5486,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>114</v>
@@ -5422,7 +5506,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>116</v>
@@ -5442,7 +5526,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
@@ -5498,7 +5582,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -5523,7 +5607,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
@@ -5604,10 +5688,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5624,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -5644,7 +5728,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>110</v>
@@ -5664,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>89</v>
@@ -5684,7 +5768,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -5704,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>114</v>
@@ -5724,7 +5808,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>116</v>
@@ -5744,7 +5828,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
@@ -5764,10 +5848,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -5784,10 +5868,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -5804,10 +5888,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -5824,10 +5908,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5835,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
@@ -5852,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>98</v>
@@ -5870,7 +5954,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>98</v>
@@ -5880,7 +5964,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -5888,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>98</v>
@@ -5905,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -5986,10 +6070,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6006,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -6026,7 +6110,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>110</v>
@@ -6046,7 +6130,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>89</v>
@@ -6066,7 +6150,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -6122,7 +6206,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -6228,10 +6312,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6248,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>85</v>
@@ -6268,7 +6352,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>110</v>
@@ -6288,7 +6372,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>89</v>
@@ -6308,7 +6392,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>91</v>
@@ -6328,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>114</v>
@@ -6348,7 +6432,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>116</v>
@@ -6368,7 +6452,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>118</v>
@@ -6388,10 +6472,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6408,10 +6492,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6428,10 +6512,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6448,10 +6532,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6459,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>92</v>
@@ -6476,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>98</v>
@@ -6494,7 +6578,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>98</v>
@@ -6504,7 +6588,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -6512,7 +6596,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>98</v>
@@ -6529,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>92</v>
@@ -6610,10 +6694,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6630,7 +6714,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -6650,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>110</v>
@@ -6670,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>89</v>
@@ -6690,7 +6774,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -6710,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>114</v>
@@ -6730,7 +6814,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>116</v>
@@ -6750,7 +6834,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
@@ -6770,10 +6854,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6790,10 +6874,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6810,10 +6894,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6830,10 +6914,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" ht="85.5" spans="1:7">
@@ -6841,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>81</v>
@@ -6850,10 +6934,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="1:7">
@@ -6861,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>81</v>
@@ -6870,10 +6954,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:7">
@@ -6881,7 +6965,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>81</v>
@@ -6890,10 +6974,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6901,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>92</v>
@@ -6918,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>98</v>
@@ -6936,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>98</v>
@@ -6946,7 +7030,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
@@ -6954,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>98</v>
@@ -6971,7 +7055,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
@@ -7385,7 +7469,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7442,8 +7526,6 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>75</v>
       </c>
@@ -7459,7 +7541,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7473,7 +7555,7 @@
       <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7957,10 +8039,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -8075,7 +8157,7 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -8095,7 +8177,7 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -8115,7 +8197,7 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -8135,14 +8217,14 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" ht="85.5" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="85.5" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8155,14 +8237,14 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="85.5" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -8170,16 +8252,19 @@
         <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -8187,14 +8272,13 @@
         <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -8208,11 +8292,11 @@
         <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -8226,26 +8310,44 @@
         <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8338,7 +8440,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -8358,7 +8460,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>110</v>
@@ -8398,7 +8500,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -8454,7 +8556,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">

--- a/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_foreground.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27165" windowHeight="13065" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="11895" windowHeight="10620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>Run</t>
   </si>
@@ -224,17 +224,6 @@
 materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
   </si>
   <si>
-    <t>indictment</t>
-  </si>
-  <si>
-    <t>yg=dumps{"name":"1","sex":"19", "family":"工农区","address":"南京","phone":"15538905670"}
-ygdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
-bg=dumps{ "name":"1", "sex":"19", "family":"工农区", "address":"南京","phone":"15538905670"}
-bgdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
-zz=主张1；主张2
-ssly=事实跟理由</t>
-  </si>
-  <si>
     <t>similarCase</t>
   </si>
   <si>
@@ -4259,10 +4248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4281,23 +4270,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4312,59 +4299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4373,21 +4308,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4409,6 +4329,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4418,7 +4352,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4433,157 +4422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4607,13 +4452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4627,17 +4616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4657,16 +4640,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4676,16 +4668,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4705,22 +4699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4730,10 +4719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4742,34 +4731,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4778,98 +4770,95 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5354,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5380,16 +5369,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5400,16 +5389,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5420,16 +5409,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5440,16 +5429,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5457,19 +5446,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5477,19 +5466,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5497,19 +5486,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="86.1" customHeight="1" spans="1:7">
@@ -5517,19 +5506,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5537,16 +5526,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -5554,17 +5543,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -5572,17 +5561,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -5590,16 +5579,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5607,16 +5596,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5656,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5682,16 +5671,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -5702,16 +5691,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -5722,16 +5711,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -5742,16 +5731,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -5759,19 +5748,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -5779,19 +5768,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -5799,19 +5788,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -5819,19 +5808,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -5839,19 +5828,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -5859,19 +5848,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -5879,19 +5868,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -5899,19 +5888,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5919,16 +5908,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -5936,17 +5925,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
@@ -5954,17 +5943,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -5972,16 +5961,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5989,16 +5978,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6038,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6064,16 +6053,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6084,16 +6073,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -6104,16 +6093,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -6124,16 +6113,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -6141,19 +6130,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6161,16 +6150,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -6178,17 +6167,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -6196,17 +6185,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -6214,16 +6203,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6231,16 +6220,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6280,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -6306,16 +6295,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6326,16 +6315,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -6346,16 +6335,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -6366,16 +6355,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -6383,19 +6372,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -6403,19 +6392,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -6423,19 +6412,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -6443,19 +6432,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -6463,19 +6452,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6483,19 +6472,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6503,19 +6492,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6523,19 +6512,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6543,16 +6532,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -6560,17 +6549,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
@@ -6578,17 +6567,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -6596,16 +6585,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6613,16 +6602,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6662,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6688,16 +6677,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -6708,16 +6697,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -6728,16 +6717,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -6748,16 +6737,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -6765,19 +6754,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -6785,19 +6774,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -6805,19 +6794,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="85.5" spans="1:7">
@@ -6825,19 +6814,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -6845,19 +6834,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:7">
@@ -6865,19 +6854,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="85.5" spans="1:7">
@@ -6885,19 +6874,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="85.5" spans="1:7">
@@ -6905,19 +6894,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" ht="85.5" spans="1:7">
@@ -6925,19 +6914,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="1:7">
@@ -6945,19 +6934,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:7">
@@ -6965,19 +6954,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6985,16 +6974,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:7">
@@ -7002,17 +6991,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:7">
@@ -7020,17 +7009,17 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
@@ -7038,16 +7027,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7055,16 +7044,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7215,13 +7204,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="63.5" customWidth="1"/>
   </cols>
@@ -7305,17 +7294,6 @@
       </c>
       <c r="E6" s="11" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" ht="142.5" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7364,14 +7342,14 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="36.75" customHeight="1" spans="1:5">
@@ -7379,14 +7357,14 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="36.75" customHeight="1" spans="1:5">
@@ -7394,14 +7372,14 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="36.75" customHeight="1" spans="1:5">
@@ -7409,52 +7387,52 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="36.75" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7483,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7506,14 +7484,14 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
@@ -7521,13 +7499,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
@@ -7535,14 +7513,14 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
@@ -7550,35 +7528,35 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7617,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7643,16 +7621,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -7663,16 +7641,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -7683,16 +7661,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -7703,16 +7681,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -7720,19 +7698,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:7">
@@ -7740,17 +7718,17 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -7758,16 +7736,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7775,16 +7753,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -7792,17 +7770,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -7810,17 +7788,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="57" spans="1:8">
@@ -7828,19 +7806,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7848,16 +7826,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7892,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -7915,7 +7893,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -7929,7 +7907,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -7943,13 +7921,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>16</v>
@@ -7963,70 +7941,70 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:6">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8041,8 +8019,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -8066,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8092,16 +8070,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -8112,16 +8090,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -8132,16 +8110,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -8152,16 +8130,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -8169,19 +8147,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
@@ -8189,19 +8167,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:7">
@@ -8209,19 +8187,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="85.5" spans="1:7">
@@ -8229,19 +8207,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
@@ -8249,19 +8227,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8269,16 +8247,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -8286,17 +8264,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -8304,17 +8282,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:7">
@@ -8322,16 +8300,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8339,16 +8317,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8388,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8414,16 +8392,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
@@ -8434,16 +8412,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
@@ -8454,16 +8432,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="85.5" spans="1:7">
@@ -8474,16 +8452,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:7">
@@ -8491,19 +8469,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8511,16 +8489,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
@@ -8528,17 +8506,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -8546,17 +8524,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
@@ -8564,16 +8542,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8581,16 +8559,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
